--- a/Banco Central/1/2/TPM y Tasas de Bonos licitados por el BCCh 1995 a 2021 - Mensual.xlsx
+++ b/Banco Central/1/2/TPM y Tasas de Bonos licitados por el BCCh 1995 a 2021 - Mensual.xlsx
@@ -7809,6 +7809,24 @@
       <c r="B316">
         <v>0.52</v>
       </c>
+      <c r="C316">
+        <v>2.3</v>
+      </c>
+      <c r="D316">
+        <v>3.67</v>
+      </c>
+      <c r="E316">
+        <v>4.49</v>
+      </c>
+      <c r="F316">
+        <v>-0.61</v>
+      </c>
+      <c r="G316">
+        <v>0.74</v>
+      </c>
+      <c r="H316">
+        <v>1.52</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
